--- a/Data/Sheet.xlsx
+++ b/Data/Sheet.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name=" Login" sheetId="1" r:id="rId1"/>
-    <sheet name=" Signin" sheetId="2" r:id="rId2"/>
+    <sheet name=" login" sheetId="2" r:id="rId1"/>
+    <sheet name=" Signup" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Mobile number</t>
   </si>
@@ -27,6 +28,66 @@
   </si>
   <si>
     <t>Jain@007?</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>DateofBirth</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Jainithan</t>
+  </si>
+  <si>
+    <t>jain</t>
+  </si>
+  <si>
+    <t>23/12/1999'</t>
+  </si>
+  <si>
+    <t>jainithan@gmail.com</t>
+  </si>
+  <si>
+    <t>Jain@007</t>
+  </si>
+  <si>
+    <t>From Address</t>
+  </si>
+  <si>
+    <t>To Address</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>From Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>01-03-2024</t>
   </si>
 </sst>
 </file>
@@ -39,7 +100,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,11 +109,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,144 +588,149 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1185,25 +1266,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -1214,18 +1279,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1236,4 +1301,134 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="11.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="13.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="12.8571428571429" customWidth="1"/>
+    <col min="7" max="7" width="21.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="Jain@007" tooltip="mailto:Jain@007"/>
+    <hyperlink ref="G2" r:id="rId1" display="Jain@007" tooltip="mailto:Jain@007"/>
+    <hyperlink ref="E2" r:id="rId2" display="jainithan@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="14.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="12.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="16.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="16.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>